--- a/biology/Botanique/Magnolia_de_Kobé/Magnolia_de_Kobé.xlsx
+++ b/biology/Botanique/Magnolia_de_Kobé/Magnolia_de_Kobé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Magnolia_de_Kob%C3%A9</t>
+          <t>Magnolia_de_Kobé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Magnolia kobus
 Le Magnolia de Kobé (Magnolia kobus) est une espèce de plantes à fleurs de la famille des Magnoliaceae. C'est un magnolia originaire du Japon et parfois cultivé dans les régions tempérées. Il s'agit d'un arbre feuillu de taille moyenne (8-15 m) à croissance lente.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Magnolia_de_Kob%C3%A9</t>
+          <t>Magnolia_de_Kobé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Deux variétés de Magnolia kobus sont reconnues :
 var. borealis est un arbre de 25 m de haut, avec des feuilles de 15 cm de long.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Magnolia_de_Kob%C3%A9</t>
+          <t>Magnolia_de_Kobé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Magnolia de Kobé a un tronc gris-brun à maturité, tandis que de nouvelles tiges sont vertes avec de petites taches brunes.
 Ils donnent des fleurs parfumées blanches avec des notes de rose pâle au début du printemps. Les fleurs sont produites avant les feuilles, comme la plupart des membres du sous-genre Magnolia Yulania. Les jeunes arbres ne fleurissent pas.
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Magnolia_de_Kob%C3%A9</t>
+          <t>Magnolia_de_Kobé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Magnolia de Kobé préfère le plein soleil, un sol riche et bien drainé, et tolère les sols acides.
 Il peut être propagé soit par semis soit par bouturage mais par semis, la première floraison peut nécessiter plus de 10 ans.
